--- a/Code/Results/Cases/Case_0_217/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_217/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4258075968338346</v>
+        <v>0.4068093373250292</v>
       </c>
       <c r="D2">
-        <v>0.001645069267928845</v>
+        <v>0.009351139749049109</v>
       </c>
       <c r="E2">
-        <v>0.1909845854651309</v>
+        <v>0.1720958756594229</v>
       </c>
       <c r="F2">
-        <v>1.382260993551938</v>
+        <v>0.9159663923201435</v>
       </c>
       <c r="G2">
-        <v>1.408574614911942</v>
+        <v>0.7963027762735919</v>
       </c>
       <c r="H2">
-        <v>0.7373293823107758</v>
+        <v>0.7612044533489666</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1765143227982122</v>
+        <v>0.15040379545691</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.482871070596673</v>
+        <v>3.12815358371347</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3781671966523845</v>
+        <v>0.3975481905092693</v>
       </c>
       <c r="D3">
-        <v>0.001829878608118563</v>
+        <v>0.009435166500940673</v>
       </c>
       <c r="E3">
-        <v>0.1690765959446665</v>
+        <v>0.1677685677011951</v>
       </c>
       <c r="F3">
-        <v>1.209856809135403</v>
+        <v>0.8772088377580189</v>
       </c>
       <c r="G3">
-        <v>1.226758546874493</v>
+        <v>0.7538445135139114</v>
       </c>
       <c r="H3">
-        <v>0.6574334384979466</v>
+        <v>0.7461335867586456</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1558150272378001</v>
+        <v>0.1462578624851787</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.929704370131901</v>
+        <v>3.006157524454125</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3495639423814225</v>
+        <v>0.3920966218257433</v>
       </c>
       <c r="D4">
-        <v>0.00194725818012631</v>
+        <v>0.00948832938111499</v>
       </c>
       <c r="E4">
-        <v>0.1559253000643182</v>
+        <v>0.1652137714663446</v>
       </c>
       <c r="F4">
-        <v>1.105966306463372</v>
+        <v>0.8539758345155519</v>
       </c>
       <c r="G4">
-        <v>1.117119749325923</v>
+        <v>0.7282703734057634</v>
       </c>
       <c r="H4">
-        <v>0.6095026360563907</v>
+        <v>0.7373056249113006</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1433914722852165</v>
+        <v>0.1438038777468833</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.59663077120689</v>
+        <v>2.933175414339644</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3380549256655456</v>
+        <v>0.3899339996491733</v>
       </c>
       <c r="D5">
-        <v>0.00199596630715615</v>
+        <v>0.009510388064638331</v>
       </c>
       <c r="E5">
-        <v>0.15063391843929</v>
+        <v>0.1641983007239354</v>
       </c>
       <c r="F5">
-        <v>1.064070082465122</v>
+        <v>0.8446496412524453</v>
       </c>
       <c r="G5">
-        <v>1.072884826342658</v>
+        <v>0.7179726945568348</v>
       </c>
       <c r="H5">
-        <v>0.5902264277076483</v>
+        <v>0.7338150516630435</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.138393180357852</v>
+        <v>0.1428268243803146</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.462372948421887</v>
+        <v>2.90391688686924</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3361522983544205</v>
+        <v>0.3895784543456102</v>
       </c>
       <c r="D6">
-        <v>0.002004104269870743</v>
+        <v>0.009514074699972896</v>
       </c>
       <c r="E6">
-        <v>0.1497591753113632</v>
+        <v>0.1640312286105896</v>
       </c>
       <c r="F6">
-        <v>1.0571383017042</v>
+        <v>0.8431095637789809</v>
       </c>
       <c r="G6">
-        <v>1.065564825701927</v>
+        <v>0.7162702446704827</v>
       </c>
       <c r="H6">
-        <v>0.5870403340354073</v>
+        <v>0.7332418969721743</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1375668992544021</v>
+        <v>0.1426659702311852</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.440163434169449</v>
+        <v>2.899087614875839</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3494081526441448</v>
+        <v>0.392067217457992</v>
       </c>
       <c r="D7">
-        <v>0.001947911662201651</v>
+        <v>0.009488625276098617</v>
       </c>
       <c r="E7">
-        <v>0.1558536735003564</v>
+        <v>0.165199972786958</v>
       </c>
       <c r="F7">
-        <v>1.105399566986904</v>
+        <v>0.8538494861101498</v>
       </c>
       <c r="G7">
-        <v>1.116521459003394</v>
+        <v>0.7281309940444487</v>
       </c>
       <c r="H7">
-        <v>0.6092416682716362</v>
+        <v>0.7372581171931074</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.143323812287953</v>
+        <v>0.1437906079781754</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.594814390855959</v>
+        <v>2.932778872918163</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4092366995433849</v>
+        <v>0.4035672883939014</v>
       </c>
       <c r="D8">
-        <v>0.001707911177665</v>
+        <v>0.009379786018830716</v>
       </c>
       <c r="E8">
-        <v>0.1833636090959772</v>
+        <v>0.1705825686378546</v>
       </c>
       <c r="F8">
-        <v>1.322373861221251</v>
+        <v>0.9024853816899849</v>
       </c>
       <c r="G8">
-        <v>1.345433439282402</v>
+        <v>0.7815599795246442</v>
       </c>
       <c r="H8">
-        <v>0.7095307046690493</v>
+        <v>0.7559195968969448</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1693131857998864</v>
+        <v>0.1489552107994783</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.290662092988157</v>
+        <v>3.085689059124093</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5324893930995529</v>
+        <v>0.4279886984085124</v>
       </c>
       <c r="D9">
-        <v>0.001274048804539962</v>
+        <v>0.009178828835648689</v>
       </c>
       <c r="E9">
-        <v>0.2400701899882947</v>
+        <v>0.1819524292491792</v>
       </c>
       <c r="F9">
-        <v>1.766149794455472</v>
+        <v>1.002364138748504</v>
       </c>
       <c r="G9">
-        <v>1.813057980356035</v>
+        <v>0.8902974908077681</v>
       </c>
       <c r="H9">
-        <v>0.9164658905370402</v>
+        <v>0.7959006314800376</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2229165315756205</v>
+        <v>0.1598142602096431</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.716284687559948</v>
+        <v>3.400899602077232</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.6278652465359187</v>
+        <v>0.4470827431894691</v>
       </c>
       <c r="D10">
-        <v>0.0009875281142817105</v>
+        <v>0.009038814222902536</v>
       </c>
       <c r="E10">
-        <v>0.2839944294429415</v>
+        <v>0.1908088464605058</v>
       </c>
       <c r="F10">
-        <v>2.107471108454021</v>
+        <v>1.078536330038418</v>
       </c>
       <c r="G10">
-        <v>2.172473005211799</v>
+        <v>0.9726574500497236</v>
       </c>
       <c r="H10">
-        <v>1.076818433794813</v>
+        <v>0.8273555155267047</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2644764625623708</v>
+        <v>0.1682450686695205</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6.814625299618854</v>
+        <v>3.641995857184725</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6726037882583853</v>
+        <v>0.4560218970189283</v>
       </c>
       <c r="D11">
-        <v>0.0008669919650281521</v>
+        <v>0.008976781069067741</v>
       </c>
       <c r="E11">
-        <v>0.3046133526323231</v>
+        <v>0.194948531687821</v>
       </c>
       <c r="F11">
-        <v>2.267099422685803</v>
+        <v>1.113805546471013</v>
       </c>
       <c r="G11">
-        <v>2.340534858232246</v>
+        <v>1.010673884672855</v>
       </c>
       <c r="H11">
-        <v>1.152089566274753</v>
+        <v>0.8421208982347821</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2839991671515065</v>
+        <v>0.1721803059861031</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>7.328789785585457</v>
+        <v>3.753776474961853</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6897677560976092</v>
+        <v>0.4594434993398124</v>
       </c>
       <c r="D12">
-        <v>0.000823052064103047</v>
+        <v>0.00895353041766489</v>
       </c>
       <c r="E12">
-        <v>0.312526520823134</v>
+        <v>0.1965321595870222</v>
       </c>
       <c r="F12">
-        <v>2.328270158656039</v>
+        <v>1.127250626168475</v>
       </c>
       <c r="G12">
-        <v>2.404935752021942</v>
+        <v>1.025149684592009</v>
       </c>
       <c r="H12">
-        <v>1.180975664011839</v>
+        <v>0.8477780284605672</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2914940631142855</v>
+        <v>0.1736849660905335</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7.525901302194654</v>
+        <v>3.796409758596155</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6860608139428166</v>
+        <v>0.4587049688618947</v>
       </c>
       <c r="D13">
-        <v>0.0008324341980463501</v>
+        <v>0.008958527168961616</v>
       </c>
       <c r="E13">
-        <v>0.3108173662251303</v>
+        <v>0.1961903832866838</v>
       </c>
       <c r="F13">
-        <v>2.31506214792897</v>
+        <v>1.124351003731732</v>
       </c>
       <c r="G13">
-        <v>2.391030314673031</v>
+        <v>1.022028502582913</v>
       </c>
       <c r="H13">
-        <v>1.174736687974445</v>
+        <v>0.8465567350012009</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2898751343180663</v>
+        <v>0.1733602655907163</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7.483337204243526</v>
+        <v>3.787214352518163</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6740112478778144</v>
+        <v>0.4563026612454735</v>
       </c>
       <c r="D14">
-        <v>0.0008633409523570723</v>
+        <v>0.008974863407454237</v>
       </c>
       <c r="E14">
-        <v>0.3052621817442613</v>
+        <v>0.1950784962148049</v>
       </c>
       <c r="F14">
-        <v>2.272116898462386</v>
+        <v>1.11490988676033</v>
       </c>
       <c r="G14">
-        <v>2.345817302446932</v>
+        <v>1.011863214402723</v>
       </c>
       <c r="H14">
-        <v>1.154458081247611</v>
+        <v>0.8425849940172156</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2846136491045286</v>
+        <v>0.1723038047452974</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>7.34495603536817</v>
+        <v>3.757277830442035</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6666603975473606</v>
+        <v>0.4548359408504723</v>
       </c>
       <c r="D15">
-        <v>0.0008825039152497993</v>
+        <v>0.008984901113034294</v>
       </c>
       <c r="E15">
-        <v>0.3018736028406437</v>
+        <v>0.1943995217469379</v>
       </c>
       <c r="F15">
-        <v>2.245908876141456</v>
+        <v>1.109138586840345</v>
       </c>
       <c r="G15">
-        <v>2.318225207418095</v>
+        <v>1.005647093545633</v>
       </c>
       <c r="H15">
-        <v>1.142088187932956</v>
+        <v>0.8401607622488427</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2814045527348412</v>
+        <v>0.1716585791814822</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>7.260517353484488</v>
+        <v>3.738980538580222</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.6249710074911263</v>
+        <v>0.446503654289728</v>
       </c>
       <c r="D16">
-        <v>0.0009956266646069523</v>
+        <v>0.009042901745627052</v>
       </c>
       <c r="E16">
-        <v>0.2826608880457258</v>
+        <v>0.1905405456508973</v>
       </c>
       <c r="F16">
-        <v>2.097134721971315</v>
+        <v>1.076243885124114</v>
       </c>
       <c r="G16">
-        <v>2.161590158042401</v>
+        <v>0.9701841184887883</v>
       </c>
       <c r="H16">
-        <v>1.071950082498887</v>
+        <v>0.8263997614475045</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2632141297537487</v>
+        <v>0.1679899118500146</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6.781342259464338</v>
+        <v>3.634733231000098</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.5997611372657161</v>
+        <v>0.4414570045306618</v>
       </c>
       <c r="D17">
-        <v>0.001067727622374726</v>
+        <v>0.009078909304715221</v>
       </c>
       <c r="E17">
-        <v>0.271046983716495</v>
+        <v>0.1882016369687989</v>
       </c>
       <c r="F17">
-        <v>2.007048291617053</v>
+        <v>1.056222723677024</v>
       </c>
       <c r="G17">
-        <v>2.066738216303889</v>
+        <v>0.9485701779534281</v>
       </c>
       <c r="H17">
-        <v>1.029550932092008</v>
+        <v>0.8180748479653914</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2522219406871926</v>
+        <v>0.1657649834149737</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.491320601665507</v>
+        <v>3.571321180802784</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.5853864514963902</v>
+        <v>0.4385781272709721</v>
       </c>
       <c r="D18">
-        <v>0.001110100299807515</v>
+        <v>0.009099776085649491</v>
       </c>
       <c r="E18">
-        <v>0.2644260892649086</v>
+        <v>0.1868667881919706</v>
       </c>
       <c r="F18">
-        <v>1.955636963178435</v>
+        <v>1.044765229239204</v>
       </c>
       <c r="G18">
-        <v>2.012604467659912</v>
+        <v>0.9361901856157431</v>
       </c>
       <c r="H18">
-        <v>1.005379816933583</v>
+        <v>0.8133295258420503</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2459567048010456</v>
+        <v>0.1644946724680949</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.325853733654753</v>
+        <v>3.535046248280196</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5805401543834137</v>
+        <v>0.4376074763875692</v>
       </c>
       <c r="D19">
-        <v>0.001124593793682127</v>
+        <v>0.009106868009119751</v>
       </c>
       <c r="E19">
-        <v>0.2621941325972159</v>
+        <v>0.1864166202737749</v>
       </c>
       <c r="F19">
-        <v>1.938296599871862</v>
+        <v>1.040895890022554</v>
       </c>
       <c r="G19">
-        <v>1.994345318654155</v>
+        <v>0.9320074057544048</v>
       </c>
       <c r="H19">
-        <v>0.9972315688223432</v>
+        <v>0.811730212508138</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.243844841145247</v>
+        <v>0.1640661803442924</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.270051471517206</v>
+        <v>3.522798133886397</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.6024316023787435</v>
+        <v>0.4419917625536698</v>
       </c>
       <c r="D20">
-        <v>0.001059957025538294</v>
+        <v>0.00907506006614911</v>
       </c>
       <c r="E20">
-        <v>0.2722770919638506</v>
+        <v>0.1884495378012971</v>
       </c>
       <c r="F20">
-        <v>2.01659567044959</v>
+        <v>1.058347988721053</v>
       </c>
       <c r="G20">
-        <v>2.076790918571874</v>
+        <v>0.9508656557133293</v>
       </c>
       <c r="H20">
-        <v>1.034041732763967</v>
+        <v>0.8189566030620483</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2533860679388482</v>
+        <v>0.1660008564074218</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.522052398077051</v>
+        <v>3.578050996948036</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6775442207823232</v>
+        <v>0.4570072845094728</v>
       </c>
       <c r="D21">
-        <v>0.000854213999689879</v>
+        <v>0.008970058534938818</v>
       </c>
       <c r="E21">
-        <v>0.3068909026302578</v>
+        <v>0.1954046490250718</v>
       </c>
       <c r="F21">
-        <v>2.284710519668337</v>
+        <v>1.11768054147862</v>
       </c>
       <c r="G21">
-        <v>2.359075964482798</v>
+        <v>1.014846835011895</v>
       </c>
       <c r="H21">
-        <v>1.160403607075693</v>
+        <v>0.8437498034405735</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2861561905754968</v>
+        <v>0.1726137194532242</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7.385533840963205</v>
+        <v>3.766062637682921</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7279466526763372</v>
+        <v>0.4670338348652479</v>
       </c>
       <c r="D22">
-        <v>0.0007298637574024713</v>
+        <v>0.008902833278146671</v>
       </c>
       <c r="E22">
-        <v>0.3301338134954719</v>
+        <v>0.2000436238092291</v>
       </c>
       <c r="F22">
-        <v>2.464205582073404</v>
+        <v>1.156979085665597</v>
       </c>
       <c r="G22">
-        <v>2.548049318725958</v>
+        <v>1.057127679719855</v>
       </c>
       <c r="H22">
-        <v>1.245244570409369</v>
+        <v>0.8603372093284065</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3081756516100427</v>
+        <v>0.1770199983058944</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>7.964083373418305</v>
+        <v>3.890714148656627</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.7009157598088791</v>
+        <v>0.4616629389621778</v>
       </c>
       <c r="D23">
-        <v>0.0007951936924570635</v>
+        <v>0.008938584190553822</v>
       </c>
       <c r="E23">
-        <v>0.3176669474121212</v>
+        <v>0.1975591428688688</v>
       </c>
       <c r="F23">
-        <v>2.367980700405198</v>
+        <v>1.135956844762489</v>
       </c>
       <c r="G23">
-        <v>2.446743110219131</v>
+        <v>1.034518794695117</v>
       </c>
       <c r="H23">
-        <v>1.199739572750246</v>
+        <v>0.8514490402922377</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.296363516791871</v>
+        <v>0.1746605331655644</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.653884571337585</v>
+        <v>3.824022297306726</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.6012239171359397</v>
+        <v>0.4417499283512711</v>
       </c>
       <c r="D24">
-        <v>0.00106346726559603</v>
+        <v>0.009076799791421841</v>
       </c>
       <c r="E24">
-        <v>0.2717207863101976</v>
+        <v>0.1883374312511137</v>
       </c>
       <c r="F24">
-        <v>2.012278122245846</v>
+        <v>1.057386991536589</v>
       </c>
       <c r="G24">
-        <v>2.072244860194814</v>
+        <v>0.9498277265160198</v>
       </c>
       <c r="H24">
-        <v>1.032010807686163</v>
+        <v>0.8185578345618012</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.252859597804445</v>
+        <v>0.1658941907309242</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.508154619504523</v>
+        <v>3.57500788184376</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4983938150553229</v>
+        <v>0.4211806766276709</v>
       </c>
       <c r="D25">
-        <v>0.001386579660597409</v>
+        <v>0.009231855463133654</v>
       </c>
       <c r="E25">
-        <v>0.2243776713721815</v>
+        <v>0.1787887158460251</v>
       </c>
       <c r="F25">
-        <v>1.643736125138872</v>
+        <v>0.9748574239048509</v>
       </c>
       <c r="G25">
-        <v>1.684116221194756</v>
+        <v>0.8604512084784517</v>
       </c>
       <c r="H25">
-        <v>0.8591847672908273</v>
+        <v>0.7847205061395641</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2080775698222226</v>
+        <v>0.1567976055937805</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.32274319939313</v>
+        <v>3.313967518965114</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_217/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_217/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4068093373250292</v>
+        <v>0.4258075968336641</v>
       </c>
       <c r="D2">
-        <v>0.009351139749049109</v>
+        <v>0.001645069267929733</v>
       </c>
       <c r="E2">
-        <v>0.1720958756594229</v>
+        <v>0.1909845854651024</v>
       </c>
       <c r="F2">
-        <v>0.9159663923201435</v>
+        <v>1.382260993551924</v>
       </c>
       <c r="G2">
-        <v>0.7963027762735919</v>
+        <v>1.408574614911885</v>
       </c>
       <c r="H2">
-        <v>0.7612044533489666</v>
+        <v>0.7373293823109179</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.15040379545691</v>
+        <v>0.1765143227982264</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.12815358371347</v>
+        <v>4.482871070596673</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3975481905092693</v>
+        <v>0.3781671966526119</v>
       </c>
       <c r="D3">
-        <v>0.009435166500940673</v>
+        <v>0.001829878608113233</v>
       </c>
       <c r="E3">
-        <v>0.1677685677011951</v>
+        <v>0.1690765959446452</v>
       </c>
       <c r="F3">
-        <v>0.8772088377580189</v>
+        <v>1.209856809135403</v>
       </c>
       <c r="G3">
-        <v>0.7538445135139114</v>
+        <v>1.226758546874521</v>
       </c>
       <c r="H3">
-        <v>0.7461335867586456</v>
+        <v>0.6574334384979466</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1462578624851787</v>
+        <v>0.1558150272377858</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.006157524454125</v>
+        <v>3.929704370131958</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3920966218257433</v>
+        <v>0.3495639423812236</v>
       </c>
       <c r="D4">
-        <v>0.00948832938111499</v>
+        <v>0.001947258180091671</v>
       </c>
       <c r="E4">
-        <v>0.1652137714663446</v>
+        <v>0.1559253000643217</v>
       </c>
       <c r="F4">
-        <v>0.8539758345155519</v>
+        <v>1.105966306463387</v>
       </c>
       <c r="G4">
-        <v>0.7282703734057634</v>
+        <v>1.117119749325923</v>
       </c>
       <c r="H4">
-        <v>0.7373056249113006</v>
+        <v>0.6095026360563907</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1438038777468833</v>
+        <v>0.1433914722851739</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.933175414339644</v>
+        <v>3.596630771206776</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3899339996491733</v>
+        <v>0.3380549256654319</v>
       </c>
       <c r="D5">
-        <v>0.009510388064638331</v>
+        <v>0.001995966307156483</v>
       </c>
       <c r="E5">
-        <v>0.1641983007239354</v>
+        <v>0.15063391843929</v>
       </c>
       <c r="F5">
-        <v>0.8446496412524453</v>
+        <v>1.064070082465122</v>
       </c>
       <c r="G5">
-        <v>0.7179726945568348</v>
+        <v>1.072884826342715</v>
       </c>
       <c r="H5">
-        <v>0.7338150516630435</v>
+        <v>0.590226427707762</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1428268243803146</v>
+        <v>0.1383931803577454</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.90391688686924</v>
+        <v>3.462372948421887</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3895784543456102</v>
+        <v>0.336152298354591</v>
       </c>
       <c r="D6">
-        <v>0.009514074699972896</v>
+        <v>0.002004104269759277</v>
       </c>
       <c r="E6">
-        <v>0.1640312286105896</v>
+        <v>0.1497591753113667</v>
       </c>
       <c r="F6">
-        <v>0.8431095637789809</v>
+        <v>1.057138301704185</v>
       </c>
       <c r="G6">
-        <v>0.7162702446704827</v>
+        <v>1.065564825702012</v>
       </c>
       <c r="H6">
-        <v>0.7332418969721743</v>
+        <v>0.5870403340355494</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1426659702311852</v>
+        <v>0.1375668992543524</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.899087614875839</v>
+        <v>3.440163434169392</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.392067217457992</v>
+        <v>0.3494081526442017</v>
       </c>
       <c r="D7">
-        <v>0.009488625276098617</v>
+        <v>0.00194791166212771</v>
       </c>
       <c r="E7">
-        <v>0.165199972786958</v>
+        <v>0.1558536735003742</v>
       </c>
       <c r="F7">
-        <v>0.8538494861101498</v>
+        <v>1.10539956698689</v>
       </c>
       <c r="G7">
-        <v>0.7281309940444487</v>
+        <v>1.116521459003451</v>
       </c>
       <c r="H7">
-        <v>0.7372581171931074</v>
+        <v>0.6092416682717499</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1437906079781754</v>
+        <v>0.143323812287953</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.932778872918163</v>
+        <v>3.594814390855959</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4035672883939014</v>
+        <v>0.4092366995431576</v>
       </c>
       <c r="D8">
-        <v>0.009379786018830716</v>
+        <v>0.001707911177772914</v>
       </c>
       <c r="E8">
-        <v>0.1705825686378546</v>
+        <v>0.1833636090959843</v>
       </c>
       <c r="F8">
-        <v>0.9024853816899849</v>
+        <v>1.322373861221266</v>
       </c>
       <c r="G8">
-        <v>0.7815599795246442</v>
+        <v>1.345433439282516</v>
       </c>
       <c r="H8">
-        <v>0.7559195968969448</v>
+        <v>0.7095307046690777</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1489552107994783</v>
+        <v>0.1693131857998651</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.085689059124093</v>
+        <v>4.2906620929881</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4279886984085124</v>
+        <v>0.5324893930997519</v>
       </c>
       <c r="D9">
-        <v>0.009178828835648689</v>
+        <v>0.001274048804449368</v>
       </c>
       <c r="E9">
-        <v>0.1819524292491792</v>
+        <v>0.2400701899882947</v>
       </c>
       <c r="F9">
-        <v>1.002364138748504</v>
+        <v>1.766149794455472</v>
       </c>
       <c r="G9">
-        <v>0.8902974908077681</v>
+        <v>1.813057980356149</v>
       </c>
       <c r="H9">
-        <v>0.7959006314800376</v>
+        <v>0.9164658905371255</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1598142602096431</v>
+        <v>0.2229165315757342</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.400899602077232</v>
+        <v>5.716284687559892</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4470827431894691</v>
+        <v>0.6278652465356629</v>
       </c>
       <c r="D10">
-        <v>0.009038814222902536</v>
+        <v>0.000987528114503089</v>
       </c>
       <c r="E10">
-        <v>0.1908088464605058</v>
+        <v>0.2839944294429415</v>
       </c>
       <c r="F10">
-        <v>1.078536330038418</v>
+        <v>2.10747110845405</v>
       </c>
       <c r="G10">
-        <v>0.9726574500497236</v>
+        <v>2.172473005211771</v>
       </c>
       <c r="H10">
-        <v>0.8273555155267047</v>
+        <v>1.076818433794926</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1682450686695205</v>
+        <v>0.2644764625622997</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.641995857184725</v>
+        <v>6.814625299618911</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4560218970189283</v>
+        <v>0.6726037882583853</v>
       </c>
       <c r="D11">
-        <v>0.008976781069067741</v>
+        <v>0.000866991965132291</v>
       </c>
       <c r="E11">
-        <v>0.194948531687821</v>
+        <v>0.3046133526323445</v>
       </c>
       <c r="F11">
-        <v>1.113805546471013</v>
+        <v>2.267099422685789</v>
       </c>
       <c r="G11">
-        <v>1.010673884672855</v>
+        <v>2.340534858232274</v>
       </c>
       <c r="H11">
-        <v>0.8421208982347821</v>
+        <v>1.152089566274753</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1721803059861031</v>
+        <v>0.2839991671515349</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.753776474961853</v>
+        <v>7.328789785585514</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4594434993398124</v>
+        <v>0.6897677560978082</v>
       </c>
       <c r="D12">
-        <v>0.00895353041766489</v>
+        <v>0.0008230520639918026</v>
       </c>
       <c r="E12">
-        <v>0.1965321595870222</v>
+        <v>0.312526520823134</v>
       </c>
       <c r="F12">
-        <v>1.127250626168475</v>
+        <v>2.328270158656025</v>
       </c>
       <c r="G12">
-        <v>1.025149684592009</v>
+        <v>2.404935752022055</v>
       </c>
       <c r="H12">
-        <v>0.8477780284605672</v>
+        <v>1.180975664011839</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1736849660905335</v>
+        <v>0.2914940631140865</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.796409758596155</v>
+        <v>7.525901302194541</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4587049688618947</v>
+        <v>0.6860608139432429</v>
       </c>
       <c r="D13">
-        <v>0.008958527168961616</v>
+        <v>0.0008324341981518213</v>
       </c>
       <c r="E13">
-        <v>0.1961903832866838</v>
+        <v>0.3108173662251588</v>
       </c>
       <c r="F13">
-        <v>1.124351003731732</v>
+        <v>2.315062147928955</v>
       </c>
       <c r="G13">
-        <v>1.022028502582913</v>
+        <v>2.391030314672946</v>
       </c>
       <c r="H13">
-        <v>0.8465567350012009</v>
+        <v>1.174736687974416</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1733602655907163</v>
+        <v>0.2898751343181516</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.787214352518163</v>
+        <v>7.483337204243526</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4563026612454735</v>
+        <v>0.6740112478778428</v>
       </c>
       <c r="D14">
-        <v>0.008974863407454237</v>
+        <v>0.0008633409522535995</v>
       </c>
       <c r="E14">
-        <v>0.1950784962148049</v>
+        <v>0.3052621817442827</v>
       </c>
       <c r="F14">
-        <v>1.11490988676033</v>
+        <v>2.272116898462386</v>
       </c>
       <c r="G14">
-        <v>1.011863214402723</v>
+        <v>2.345817302446903</v>
       </c>
       <c r="H14">
-        <v>0.8425849940172156</v>
+        <v>1.154458081247725</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1723038047452974</v>
+        <v>0.2846136491044433</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.757277830442035</v>
+        <v>7.344956035368227</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4548359408504723</v>
+        <v>0.6666603975473322</v>
       </c>
       <c r="D15">
-        <v>0.008984901113034294</v>
+        <v>0.0008825039152462466</v>
       </c>
       <c r="E15">
-        <v>0.1943995217469379</v>
+        <v>0.3018736028406437</v>
       </c>
       <c r="F15">
-        <v>1.109138586840345</v>
+        <v>2.245908876141428</v>
       </c>
       <c r="G15">
-        <v>1.005647093545633</v>
+        <v>2.318225207418067</v>
       </c>
       <c r="H15">
-        <v>0.8401607622488427</v>
+        <v>1.142088187932956</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1716585791814822</v>
+        <v>0.2814045527348412</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.738980538580222</v>
+        <v>7.260517353484431</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.446503654289728</v>
+        <v>0.624971007490899</v>
       </c>
       <c r="D16">
-        <v>0.009042901745627052</v>
+        <v>0.0009956266646069523</v>
       </c>
       <c r="E16">
-        <v>0.1905405456508973</v>
+        <v>0.2826608880457187</v>
       </c>
       <c r="F16">
-        <v>1.076243885124114</v>
+        <v>2.097134721971329</v>
       </c>
       <c r="G16">
-        <v>0.9701841184887883</v>
+        <v>2.161590158042344</v>
       </c>
       <c r="H16">
-        <v>0.8263997614475045</v>
+        <v>1.071950082498915</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1679899118500146</v>
+        <v>0.263214129753905</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.634733231000098</v>
+        <v>6.781342259464452</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4414570045306618</v>
+        <v>0.5997611372659435</v>
       </c>
       <c r="D17">
-        <v>0.009078909304715221</v>
+        <v>0.001067727622467984</v>
       </c>
       <c r="E17">
-        <v>0.1882016369687989</v>
+        <v>0.2710469837164808</v>
       </c>
       <c r="F17">
-        <v>1.056222723677024</v>
+        <v>2.007048291617039</v>
       </c>
       <c r="G17">
-        <v>0.9485701779534281</v>
+        <v>2.066738216303889</v>
       </c>
       <c r="H17">
-        <v>0.8180748479653914</v>
+        <v>1.029550932092008</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1657649834149737</v>
+        <v>0.2522219406871216</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.571321180802784</v>
+        <v>6.491320601665507</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4385781272709721</v>
+        <v>0.5853864514961344</v>
       </c>
       <c r="D18">
-        <v>0.009099776085649491</v>
+        <v>0.00111010029981129</v>
       </c>
       <c r="E18">
-        <v>0.1868667881919706</v>
+        <v>0.264426089264937</v>
       </c>
       <c r="F18">
-        <v>1.044765229239204</v>
+        <v>1.955636963178449</v>
       </c>
       <c r="G18">
-        <v>0.9361901856157431</v>
+        <v>2.012604467659884</v>
       </c>
       <c r="H18">
-        <v>0.8133295258420503</v>
+        <v>1.005379816933583</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1644946724680949</v>
+        <v>0.2459567048010456</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.535046248280196</v>
+        <v>6.325853733654753</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4376074763875692</v>
+        <v>0.5805401543832147</v>
       </c>
       <c r="D19">
-        <v>0.009106868009119751</v>
+        <v>0.001124593793692119</v>
       </c>
       <c r="E19">
-        <v>0.1864166202737749</v>
+        <v>0.2621941325971804</v>
       </c>
       <c r="F19">
-        <v>1.040895890022554</v>
+        <v>1.938296599871833</v>
       </c>
       <c r="G19">
-        <v>0.9320074057544048</v>
+        <v>1.994345318654126</v>
       </c>
       <c r="H19">
-        <v>0.811730212508138</v>
+        <v>0.9972315688223148</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1640661803442924</v>
+        <v>0.2438448411451191</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.522798133886397</v>
+        <v>6.270051471517263</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4419917625536698</v>
+        <v>0.6024316023783172</v>
       </c>
       <c r="D20">
-        <v>0.00907506006614911</v>
+        <v>0.001059957025645542</v>
       </c>
       <c r="E20">
-        <v>0.1884495378012971</v>
+        <v>0.2722770919638506</v>
       </c>
       <c r="F20">
-        <v>1.058347988721053</v>
+        <v>2.01659567044959</v>
       </c>
       <c r="G20">
-        <v>0.9508656557133293</v>
+        <v>2.076790918571902</v>
       </c>
       <c r="H20">
-        <v>0.8189566030620483</v>
+        <v>1.03404173276391</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1660008564074218</v>
+        <v>0.2533860679389761</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.578050996948036</v>
+        <v>6.522052398076994</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4570072845094728</v>
+        <v>0.6775442207822948</v>
       </c>
       <c r="D21">
-        <v>0.008970058534938818</v>
+        <v>0.0008542139996914333</v>
       </c>
       <c r="E21">
-        <v>0.1954046490250718</v>
+        <v>0.3068909026302791</v>
       </c>
       <c r="F21">
-        <v>1.11768054147862</v>
+        <v>2.284710519668337</v>
       </c>
       <c r="G21">
-        <v>1.014846835011895</v>
+        <v>2.359075964482713</v>
       </c>
       <c r="H21">
-        <v>0.8437498034405735</v>
+        <v>1.160403607075665</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1726137194532242</v>
+        <v>0.2861561905754826</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.766062637682921</v>
+        <v>7.385533840963092</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4670338348652479</v>
+        <v>0.7279466526763372</v>
       </c>
       <c r="D22">
-        <v>0.008902833278146671</v>
+        <v>0.0007298637572872302</v>
       </c>
       <c r="E22">
-        <v>0.2000436238092291</v>
+        <v>0.3301338134954719</v>
       </c>
       <c r="F22">
-        <v>1.156979085665597</v>
+        <v>2.464205582073433</v>
       </c>
       <c r="G22">
-        <v>1.057127679719855</v>
+        <v>2.548049318725958</v>
       </c>
       <c r="H22">
-        <v>0.8603372093284065</v>
+        <v>1.245244570409369</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1770199983058944</v>
+        <v>0.3081756516099716</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.890714148656627</v>
+        <v>7.964083373418362</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4616629389621778</v>
+        <v>0.7009157598086517</v>
       </c>
       <c r="D23">
-        <v>0.008938584190553822</v>
+        <v>0.0007951936925554293</v>
       </c>
       <c r="E23">
-        <v>0.1975591428688688</v>
+        <v>0.317666947412107</v>
       </c>
       <c r="F23">
-        <v>1.135956844762489</v>
+        <v>2.367980700405212</v>
       </c>
       <c r="G23">
-        <v>1.034518794695117</v>
+        <v>2.446743110219131</v>
       </c>
       <c r="H23">
-        <v>0.8514490402922377</v>
+        <v>1.199739572750246</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1746605331655644</v>
+        <v>0.2963635167919136</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.824022297306726</v>
+        <v>7.653884571337642</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4417499283512711</v>
+        <v>0.6012239171359681</v>
       </c>
       <c r="D24">
-        <v>0.009076799791421841</v>
+        <v>0.001063467265594253</v>
       </c>
       <c r="E24">
-        <v>0.1883374312511137</v>
+        <v>0.2717207863101976</v>
       </c>
       <c r="F24">
-        <v>1.057386991536589</v>
+        <v>2.012278122245846</v>
       </c>
       <c r="G24">
-        <v>0.9498277265160198</v>
+        <v>2.0722448601949</v>
       </c>
       <c r="H24">
-        <v>0.8185578345618012</v>
+        <v>1.032010807686163</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1658941907309242</v>
+        <v>0.2528595978045018</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.57500788184376</v>
+        <v>6.508154619504523</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4211806766276709</v>
+        <v>0.498393815054925</v>
       </c>
       <c r="D25">
-        <v>0.009231855463133654</v>
+        <v>0.001386579660595633</v>
       </c>
       <c r="E25">
-        <v>0.1787887158460251</v>
+        <v>0.2243776713721815</v>
       </c>
       <c r="F25">
-        <v>0.9748574239048509</v>
+        <v>1.643736125138886</v>
       </c>
       <c r="G25">
-        <v>0.8604512084784517</v>
+        <v>1.684116221194785</v>
       </c>
       <c r="H25">
-        <v>0.7847205061395641</v>
+        <v>0.8591847672907704</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1567976055937805</v>
+        <v>0.2080775698222226</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.313967518965114</v>
+        <v>5.322743199393187</v>
       </c>
     </row>
   </sheetData>
